--- a/data/input/covid19_vacunas.xlsx
+++ b/data/input/covid19_vacunas.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4829" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4820" uniqueCount="130">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -514,7 +514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -524,7 +524,7 @@
       <selection pane="topLeft" activeCell="H71" activeCellId="0" sqref="H71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.61"/>
@@ -534,7 +534,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2509,7 +2508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2519,11 +2518,10 @@
       <selection pane="topLeft" activeCell="D1014" activeCellId="0" sqref="D1014"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16776,7 +16774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -16786,10 +16784,7 @@
       <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -17122,22 +17117,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D556"/>
+  <dimension ref="A1:D553"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A535" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D557" activeCellId="0" sqref="D557"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A523" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E553" activeCellId="0" sqref="E553"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18769,55 +18762,55 @@
         <v>22</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>78764</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>126</v>
+      <c r="B118" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>111073</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>127</v>
+      <c r="B119" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>0</v>
+        <v>10483</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>127</v>
+      <c r="B120" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>1332</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18825,55 +18818,55 @@
         <v>22</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>4406</v>
+        <v>53277</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>128</v>
+        <v>23</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>10483</v>
+        <v>79965</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>129</v>
+        <v>23</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>22</v>
+        <v>111793</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>129</v>
+        <v>23</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>53277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18881,55 +18874,55 @@
         <v>23</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>79965</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>126</v>
+      <c r="B126" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>111793</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>127</v>
+      <c r="B127" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>0</v>
+        <v>10523</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>127</v>
+      <c r="B128" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>1381</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18937,55 +18930,55 @@
         <v>23</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>4408</v>
+        <v>54096</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>128</v>
+        <v>24</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>10523</v>
+        <v>82808</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>129</v>
+        <v>24</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>22</v>
+        <v>112501</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>129</v>
+        <v>24</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>54096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18993,55 +18986,55 @@
         <v>24</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>82808</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>126</v>
+      <c r="B134" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>112501</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>127</v>
+      <c r="B135" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>0</v>
+        <v>10558</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>127</v>
+      <c r="B136" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>1479</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19049,55 +19042,55 @@
         <v>24</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>4423</v>
+        <v>56119</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>128</v>
+        <v>25</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>10558</v>
+        <v>82808</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>129</v>
+        <v>25</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>46</v>
+        <v>112501</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>129</v>
+        <v>25</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>56119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19105,55 +19098,55 @@
         <v>25</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>82808</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>126</v>
+      <c r="B142" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>112501</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>127</v>
+      <c r="B143" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>0</v>
+        <v>10558</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>127</v>
+      <c r="B144" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>1479</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19161,55 +19154,55 @@
         <v>25</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>4423</v>
+        <v>57843</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>128</v>
+        <v>26</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>10558</v>
+        <v>83075</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>129</v>
+        <v>26</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>48</v>
+        <v>114120</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>129</v>
+        <v>26</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>57843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19217,55 +19210,55 @@
         <v>26</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>83075</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>126</v>
+      <c r="B150" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>114120</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>127</v>
+      <c r="B151" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>0</v>
+        <v>10617</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>127</v>
+      <c r="B152" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>1634</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19273,55 +19266,55 @@
         <v>26</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>4473</v>
+        <v>59910</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>128</v>
+        <v>27</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>10617</v>
+        <v>85168</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>129</v>
+        <v>27</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>50</v>
+        <v>119092</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>129</v>
+        <v>27</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>59910</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19329,55 +19322,55 @@
         <v>27</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>85168</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>126</v>
+      <c r="B158" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>119092</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>127</v>
+      <c r="B159" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>0</v>
+        <v>10660</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>127</v>
+      <c r="B160" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>1669</v>
+        <v>50</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19385,55 +19378,55 @@
         <v>27</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>4512</v>
+        <v>60434</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>128</v>
+        <v>28</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>10660</v>
+        <v>86518</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>129</v>
+        <v>28</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>50</v>
+        <v>122368</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B164" s="0" t="s">
-        <v>129</v>
+        <v>28</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>60434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19441,55 +19434,55 @@
         <v>28</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>86518</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>126</v>
+      <c r="B166" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>122368</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>127</v>
+      <c r="B167" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>0</v>
+        <v>11910</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>127</v>
+      <c r="B168" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>1705</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19497,55 +19490,55 @@
         <v>28</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>4579</v>
+        <v>61039</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B170" s="0" t="s">
-        <v>128</v>
+        <v>29</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>11910</v>
+        <v>90039</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>129</v>
+        <v>29</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>50</v>
+        <v>123187</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B172" s="0" t="s">
-        <v>129</v>
+        <v>29</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>61039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19553,55 +19546,55 @@
         <v>29</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>90039</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>126</v>
+      <c r="B174" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>123187</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>127</v>
+      <c r="B175" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>0</v>
+        <v>14612</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>127</v>
+      <c r="B176" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>1738</v>
+        <v>50</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19609,55 +19602,55 @@
         <v>29</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>4795</v>
+        <v>61151</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>128</v>
+        <v>30</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>14612</v>
+        <v>93404</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B179" s="0" t="s">
-        <v>129</v>
+        <v>30</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>50</v>
+        <v>123926</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B180" s="0" t="s">
-        <v>129</v>
+        <v>30</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>61151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19665,55 +19658,55 @@
         <v>30</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>93404</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>126</v>
+      <c r="B182" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>123926</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>127</v>
+      <c r="B183" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>0</v>
+        <v>16152</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>127</v>
+      <c r="B184" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>2450</v>
+        <v>51</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19721,55 +19714,55 @@
         <v>30</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>4855</v>
+        <v>61400</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B186" s="0" t="s">
-        <v>128</v>
+        <v>31</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>16152</v>
+        <v>93404</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>129</v>
+        <v>31</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>51</v>
+        <v>123936</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B188" s="0" t="s">
-        <v>129</v>
+        <v>31</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>61400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19777,55 +19770,55 @@
         <v>31</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>93404</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>126</v>
+      <c r="B190" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>123936</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>127</v>
+      <c r="B191" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>0</v>
+        <v>16618</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>127</v>
+      <c r="B192" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>2450</v>
+        <v>51</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19833,55 +19826,55 @@
         <v>31</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>4855</v>
+        <v>61401</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B194" s="0" t="s">
-        <v>128</v>
+        <v>32</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>16618</v>
+        <v>93404</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B195" s="0" t="s">
-        <v>129</v>
+        <v>32</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>51</v>
+        <v>123936</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B196" s="0" t="s">
-        <v>129</v>
+        <v>32</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>61401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19889,55 +19882,55 @@
         <v>32</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>93404</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>126</v>
+      <c r="B198" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>123936</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>127</v>
+      <c r="B199" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>0</v>
+        <v>16748</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>127</v>
+      <c r="B200" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>2717</v>
+        <v>51</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19945,55 +19938,55 @@
         <v>32</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>4855</v>
+        <v>61401</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B202" s="0" t="s">
-        <v>128</v>
+        <v>33</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>16748</v>
+        <v>95740</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B203" s="0" t="s">
-        <v>129</v>
+        <v>33</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>51</v>
+        <v>125062</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B204" s="0" t="s">
-        <v>129</v>
+        <v>33</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D204" s="0" t="n">
-        <v>61401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20001,55 +19994,55 @@
         <v>33</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>95740</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>126</v>
+      <c r="B206" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>125062</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>127</v>
+      <c r="B207" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>0</v>
+        <v>17390</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>127</v>
+      <c r="B208" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D208" s="0" t="n">
-        <v>2771</v>
+        <v>51</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20057,55 +20050,55 @@
         <v>33</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D209" s="0" t="n">
-        <v>4979</v>
+        <v>61421</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>128</v>
+        <v>34</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>17390</v>
+        <v>96623</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>129</v>
+        <v>34</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>51</v>
+        <v>129031</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B212" s="0" t="s">
-        <v>129</v>
+        <v>34</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D212" s="0" t="n">
-        <v>61421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20113,55 +20106,55 @@
         <v>34</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D213" s="0" t="n">
-        <v>96623</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>126</v>
+      <c r="B214" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D214" s="0" t="n">
-        <v>129031</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>127</v>
+      <c r="B215" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D215" s="0" t="n">
-        <v>0</v>
+        <v>18112</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>127</v>
+      <c r="B216" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D216" s="0" t="n">
-        <v>3018</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20169,55 +20162,55 @@
         <v>34</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D217" s="0" t="n">
-        <v>5004</v>
+        <v>61471</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B218" s="0" t="s">
-        <v>128</v>
+        <v>35</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D218" s="0" t="n">
-        <v>18112</v>
+        <v>100668</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B219" s="0" t="s">
-        <v>129</v>
+        <v>35</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D219" s="0" t="n">
-        <v>1</v>
+        <v>129932</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B220" s="0" t="s">
-        <v>129</v>
+        <v>35</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D220" s="0" t="n">
-        <v>61471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20225,55 +20218,55 @@
         <v>35</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D221" s="0" t="n">
-        <v>100668</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>126</v>
+      <c r="B222" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D222" s="0" t="n">
-        <v>129932</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>127</v>
+      <c r="B223" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D223" s="0" t="n">
-        <v>0</v>
+        <v>18630</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>127</v>
+      <c r="B224" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D224" s="0" t="n">
-        <v>3388</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20281,55 +20274,55 @@
         <v>35</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D225" s="0" t="n">
-        <v>5147</v>
+        <v>61473</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B226" s="0" t="s">
-        <v>128</v>
+        <v>36</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D226" s="0" t="n">
-        <v>18630</v>
+        <v>101949</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B227" s="0" t="s">
-        <v>129</v>
+        <v>36</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D227" s="0" t="n">
-        <v>2</v>
+        <v>133581</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B228" s="0" t="s">
-        <v>129</v>
+        <v>36</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D228" s="0" t="n">
-        <v>61473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20337,55 +20330,55 @@
         <v>36</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D229" s="0" t="n">
-        <v>101949</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B230" s="1" t="s">
-        <v>126</v>
+      <c r="B230" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D230" s="0" t="n">
-        <v>133581</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>127</v>
+      <c r="B231" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D231" s="0" t="n">
-        <v>0</v>
+        <v>19374</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B232" s="1" t="s">
-        <v>127</v>
+      <c r="B232" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D232" s="0" t="n">
-        <v>3412</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20393,55 +20386,55 @@
         <v>36</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D233" s="0" t="n">
-        <v>5290</v>
+        <v>61475</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B234" s="0" t="s">
-        <v>128</v>
+        <v>37</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D234" s="0" t="n">
-        <v>19374</v>
+        <v>101949</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B235" s="0" t="s">
-        <v>129</v>
+        <v>37</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D235" s="0" t="n">
-        <v>2</v>
+        <v>133581</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B236" s="0" t="s">
-        <v>129</v>
+        <v>37</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D236" s="0" t="n">
-        <v>61475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20449,55 +20442,55 @@
         <v>37</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D237" s="0" t="n">
-        <v>101949</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B238" s="1" t="s">
-        <v>126</v>
+      <c r="B238" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D238" s="0" t="n">
-        <v>133581</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>127</v>
+      <c r="B239" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D239" s="0" t="n">
-        <v>0</v>
+        <v>19374</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B240" s="1" t="s">
-        <v>127</v>
+      <c r="B240" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D240" s="0" t="n">
-        <v>3412</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20505,55 +20498,55 @@
         <v>37</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D241" s="0" t="n">
-        <v>5290</v>
+        <v>61475</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B242" s="0" t="s">
-        <v>128</v>
+        <v>38</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D242" s="0" t="n">
-        <v>19374</v>
+        <v>103190</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B243" s="0" t="s">
-        <v>129</v>
+        <v>38</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D243" s="0" t="n">
-        <v>2</v>
+        <v>136651</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B244" s="0" t="s">
-        <v>129</v>
+        <v>38</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D244" s="0" t="n">
-        <v>61475</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20561,55 +20554,55 @@
         <v>38</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D245" s="0" t="n">
-        <v>103190</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>126</v>
+      <c r="B246" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D246" s="0" t="n">
-        <v>136651</v>
+        <v>6191</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B247" s="1" t="s">
-        <v>127</v>
+      <c r="B247" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D247" s="0" t="n">
-        <v>14</v>
+        <v>19979</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>127</v>
+      <c r="B248" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D248" s="0" t="n">
-        <v>4055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20617,55 +20610,55 @@
         <v>38</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D249" s="0" t="n">
-        <v>6191</v>
+        <v>61475</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B250" s="0" t="s">
-        <v>128</v>
+        <v>39</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D250" s="0" t="n">
-        <v>19979</v>
+        <v>103190</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B251" s="0" t="s">
-        <v>129</v>
+        <v>39</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D251" s="0" t="n">
-        <v>1</v>
+        <v>136651</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>129</v>
+        <v>39</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D252" s="0" t="n">
-        <v>61475</v>
+        <v>153</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20673,55 +20666,55 @@
         <v>39</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D253" s="0" t="n">
-        <v>103190</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B254" s="1" t="s">
-        <v>126</v>
+      <c r="B254" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D254" s="0" t="n">
-        <v>136651</v>
+        <v>7289</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B255" s="1" t="s">
-        <v>127</v>
+      <c r="B255" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D255" s="0" t="n">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20132</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B256" s="1" t="s">
-        <v>127</v>
+      <c r="B256" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D256" s="0" t="n">
-        <v>4055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20729,55 +20722,55 @@
         <v>39</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D257" s="0" t="n">
-        <v>7289</v>
+        <v>61475</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B258" s="0" t="s">
-        <v>128</v>
+        <v>40</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D258" s="0" t="n">
-        <v>20132</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>105452</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B259" s="0" t="s">
-        <v>129</v>
+        <v>40</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D259" s="0" t="n">
-        <v>1</v>
+        <v>137397</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B260" s="0" t="s">
-        <v>129</v>
+        <v>40</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D260" s="0" t="n">
-        <v>61475</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20785,55 +20778,55 @@
         <v>40</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D261" s="0" t="n">
-        <v>105452</v>
+        <v>153</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B262" s="1" t="s">
-        <v>126</v>
+      <c r="B262" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D262" s="0" t="n">
-        <v>137397</v>
+        <v>7603</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B263" s="1" t="s">
-        <v>127</v>
+      <c r="B263" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D263" s="0" t="n">
-        <v>4054</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20492</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B264" s="1" t="s">
-        <v>127</v>
+      <c r="B264" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D264" s="0" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20841,55 +20834,55 @@
         <v>40</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D265" s="0" t="n">
-        <v>7603</v>
+        <v>61476</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B266" s="0" t="s">
-        <v>128</v>
+        <v>41</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D266" s="0" t="n">
-        <v>20492</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>107188</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B267" s="0" t="s">
-        <v>129</v>
+        <v>41</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D267" s="0" t="n">
-        <v>1</v>
+        <v>140020</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B268" s="0" t="s">
-        <v>129</v>
+        <v>41</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D268" s="0" t="n">
-        <v>61476</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20897,55 +20890,55 @@
         <v>41</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D269" s="0" t="n">
-        <v>107188</v>
+        <v>153</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>126</v>
+      <c r="B270" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D270" s="0" t="n">
-        <v>140020</v>
+        <v>7929</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B271" s="1" t="s">
-        <v>127</v>
+      <c r="B271" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D271" s="0" t="n">
-        <v>4070</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21176</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>127</v>
+      <c r="B272" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D272" s="0" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20953,55 +20946,55 @@
         <v>41</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D273" s="0" t="n">
-        <v>7929</v>
+        <v>61482</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B274" s="0" t="s">
-        <v>128</v>
+        <v>42</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D274" s="0" t="n">
-        <v>21176</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>108704</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B275" s="0" t="s">
-        <v>129</v>
+        <v>42</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D275" s="0" t="n">
-        <v>1</v>
+        <v>142796</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B276" s="0" t="s">
-        <v>129</v>
+        <v>42</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D276" s="0" t="n">
-        <v>61482</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21009,55 +21002,55 @@
         <v>42</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D277" s="0" t="n">
-        <v>108704</v>
+        <v>156</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B278" s="1" t="s">
-        <v>126</v>
+      <c r="B278" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D278" s="0" t="n">
-        <v>142796</v>
+        <v>8194</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B279" s="1" t="s">
-        <v>127</v>
+      <c r="B279" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D279" s="0" t="n">
-        <v>4284</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22583</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B280" s="1" t="s">
-        <v>127</v>
+      <c r="B280" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D280" s="0" t="n">
-        <v>156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21065,55 +21058,55 @@
         <v>42</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D281" s="0" t="n">
-        <v>8194</v>
+        <v>61485</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B282" s="0" t="s">
-        <v>128</v>
+        <v>43</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D282" s="0" t="n">
-        <v>22583</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>109877</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B283" s="0" t="s">
-        <v>129</v>
+        <v>43</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D283" s="0" t="n">
-        <v>1</v>
+        <v>146151</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B284" s="0" t="s">
-        <v>129</v>
+        <v>43</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D284" s="0" t="n">
-        <v>61485</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21121,55 +21114,55 @@
         <v>43</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D285" s="0" t="n">
-        <v>109877</v>
+        <v>156</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B286" s="1" t="s">
-        <v>126</v>
+      <c r="B286" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D286" s="0" t="n">
-        <v>146151</v>
+        <v>8475</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B287" s="1" t="s">
-        <v>127</v>
+      <c r="B287" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D287" s="0" t="n">
-        <v>4517</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23866</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B288" s="1" t="s">
-        <v>127</v>
+      <c r="B288" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D288" s="0" t="n">
-        <v>156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21177,55 +21170,55 @@
         <v>43</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D289" s="0" t="n">
-        <v>8475</v>
+        <v>61489</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B290" s="0" t="s">
-        <v>128</v>
+        <v>44</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D290" s="0" t="n">
-        <v>23866</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>111317</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B291" s="0" t="s">
-        <v>129</v>
+        <v>44</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D291" s="0" t="n">
-        <v>1</v>
+        <v>148524</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B292" s="0" t="s">
-        <v>129</v>
+        <v>44</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D292" s="0" t="n">
-        <v>61489</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21233,55 +21226,55 @@
         <v>44</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D293" s="0" t="n">
-        <v>111317</v>
+        <v>156</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B294" s="1" t="s">
-        <v>126</v>
+      <c r="B294" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D294" s="0" t="n">
-        <v>148524</v>
+        <v>9332</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B295" s="1" t="s">
-        <v>127</v>
+      <c r="B295" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D295" s="0" t="n">
-        <v>4698</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25070</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B296" s="1" t="s">
-        <v>127</v>
+      <c r="B296" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D296" s="0" t="n">
-        <v>156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21289,55 +21282,55 @@
         <v>44</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D297" s="0" t="n">
-        <v>9332</v>
+        <v>61489</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B298" s="0" t="s">
-        <v>128</v>
+        <v>45</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D298" s="0" t="n">
-        <v>25070</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>111317</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B299" s="0" t="s">
-        <v>129</v>
+        <v>45</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D299" s="0" t="n">
-        <v>1</v>
+        <v>148525</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B300" s="0" t="s">
-        <v>129</v>
+        <v>45</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D300" s="0" t="n">
-        <v>61489</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21345,55 +21338,55 @@
         <v>45</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D301" s="0" t="n">
-        <v>111317</v>
+        <v>156</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B302" s="1" t="s">
-        <v>126</v>
+      <c r="B302" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D302" s="0" t="n">
-        <v>148525</v>
+        <v>9333</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B303" s="1" t="s">
-        <v>127</v>
+      <c r="B303" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D303" s="0" t="n">
-        <v>4698</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25826</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B304" s="1" t="s">
-        <v>127</v>
+      <c r="B304" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D304" s="0" t="n">
-        <v>156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21401,55 +21394,55 @@
         <v>45</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D305" s="0" t="n">
-        <v>9333</v>
+        <v>61489</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B306" s="0" t="s">
-        <v>128</v>
+        <v>46</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D306" s="0" t="n">
-        <v>25826</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>111317</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B307" s="0" t="s">
-        <v>129</v>
+        <v>46</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D307" s="0" t="n">
-        <v>1</v>
+        <v>148525</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B308" s="0" t="s">
-        <v>129</v>
+        <v>46</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D308" s="0" t="n">
-        <v>61489</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21457,55 +21450,55 @@
         <v>46</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D309" s="0" t="n">
-        <v>111317</v>
+        <v>156</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B310" s="1" t="s">
-        <v>126</v>
+      <c r="B310" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D310" s="0" t="n">
-        <v>148525</v>
+        <v>9333</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B311" s="1" t="s">
-        <v>127</v>
+      <c r="B311" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D311" s="0" t="n">
-        <v>4698</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26573</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B312" s="1" t="s">
-        <v>127</v>
+      <c r="B312" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D312" s="0" t="n">
-        <v>156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21513,55 +21506,55 @@
         <v>46</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D313" s="0" t="n">
-        <v>9333</v>
+        <v>61489</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B314" s="0" t="s">
-        <v>128</v>
+        <v>47</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D314" s="0" t="n">
-        <v>26573</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>112879</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B315" s="0" t="s">
-        <v>129</v>
+        <v>47</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D315" s="0" t="n">
-        <v>1</v>
+        <v>150367</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B316" s="0" t="s">
-        <v>129</v>
+        <v>47</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D316" s="0" t="n">
-        <v>61489</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21569,55 +21562,55 @@
         <v>47</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D317" s="0" t="n">
-        <v>112879</v>
+        <v>156</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B318" s="1" t="s">
-        <v>126</v>
+      <c r="B318" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D318" s="0" t="n">
-        <v>150367</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B319" s="1" t="s">
-        <v>127</v>
+      <c r="B319" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D319" s="0" t="n">
-        <v>5228</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26590</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B320" s="1" t="s">
-        <v>127</v>
+      <c r="B320" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D320" s="0" t="n">
-        <v>156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21625,55 +21618,55 @@
         <v>47</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D321" s="0" t="n">
-        <v>9751</v>
+        <v>61490</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B322" s="0" t="s">
-        <v>128</v>
+        <v>48</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D322" s="0" t="n">
-        <v>26590</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>117332</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B323" s="0" t="s">
-        <v>129</v>
+        <v>48</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D323" s="0" t="n">
-        <v>1</v>
+        <v>153128</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B324" s="0" t="s">
-        <v>129</v>
+        <v>48</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D324" s="0" t="n">
-        <v>61490</v>
+        <v>5509</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21681,55 +21674,55 @@
         <v>48</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D325" s="0" t="n">
-        <v>117332</v>
+        <v>156</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B326" s="1" t="s">
-        <v>126</v>
+      <c r="B326" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D326" s="0" t="n">
-        <v>153128</v>
+        <v>9963</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B327" s="1" t="s">
-        <v>127</v>
+      <c r="B327" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D327" s="0" t="n">
-        <v>5509</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26593</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B328" s="1" t="s">
-        <v>127</v>
+      <c r="B328" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D328" s="0" t="n">
-        <v>156</v>
+        <v>180</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21737,55 +21730,55 @@
         <v>48</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D329" s="0" t="n">
-        <v>9963</v>
+        <v>61496</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B330" s="0" t="s">
-        <v>128</v>
+        <v>49</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D330" s="0" t="n">
-        <v>26593</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>121000</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B331" s="0" t="s">
-        <v>129</v>
+        <v>49</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D331" s="0" t="n">
-        <v>180</v>
+        <v>156886</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B332" s="0" t="s">
-        <v>129</v>
+        <v>49</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D332" s="0" t="n">
-        <v>61496</v>
+        <v>5779</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21793,55 +21786,55 @@
         <v>49</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D333" s="0" t="n">
-        <v>121000</v>
+        <v>156</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B334" s="1" t="s">
-        <v>126</v>
+      <c r="B334" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D334" s="0" t="n">
-        <v>156886</v>
+        <v>10153</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B335" s="1" t="s">
-        <v>127</v>
+      <c r="B335" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D335" s="0" t="n">
-        <v>5779</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26594</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B336" s="1" t="s">
-        <v>127</v>
+      <c r="B336" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D336" s="0" t="n">
-        <v>156</v>
+        <v>180</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21849,55 +21842,55 @@
         <v>49</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D337" s="0" t="n">
-        <v>10153</v>
+        <v>61502</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B338" s="0" t="s">
-        <v>128</v>
+        <v>50</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D338" s="0" t="n">
-        <v>26594</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>121783</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B339" s="0" t="s">
-        <v>129</v>
+        <v>50</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D339" s="0" t="n">
-        <v>180</v>
+        <v>163273</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B340" s="0" t="s">
-        <v>129</v>
+        <v>50</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D340" s="0" t="n">
-        <v>61502</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21905,55 +21898,55 @@
         <v>50</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D341" s="0" t="n">
-        <v>121783</v>
+        <v>161</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B342" s="1" t="s">
-        <v>126</v>
+      <c r="B342" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D342" s="0" t="n">
-        <v>163273</v>
+        <v>10214</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B343" s="1" t="s">
-        <v>127</v>
+      <c r="B343" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D343" s="0" t="n">
-        <v>6029</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26626</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B344" s="1" t="s">
-        <v>127</v>
+      <c r="B344" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D344" s="0" t="n">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21961,55 +21954,55 @@
         <v>50</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D345" s="0" t="n">
-        <v>10214</v>
+        <v>61513</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B346" s="0" t="s">
-        <v>128</v>
+        <v>51</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D346" s="0" t="n">
-        <v>26626</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>121783</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B347" s="0" t="s">
-        <v>129</v>
+        <v>51</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D347" s="0" t="n">
-        <v>180</v>
+        <v>163273</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B348" s="0" t="s">
-        <v>129</v>
+        <v>51</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D348" s="0" t="n">
-        <v>61513</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22017,55 +22010,55 @@
         <v>51</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D349" s="0" t="n">
-        <v>121783</v>
+        <v>161</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B350" s="1" t="s">
-        <v>126</v>
+      <c r="B350" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D350" s="0" t="n">
-        <v>163273</v>
+        <v>10214</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B351" s="1" t="s">
-        <v>127</v>
+      <c r="B351" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D351" s="0" t="n">
-        <v>6029</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26626</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B352" s="1" t="s">
-        <v>127</v>
+      <c r="B352" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D352" s="0" t="n">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22073,55 +22066,55 @@
         <v>51</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D353" s="0" t="n">
-        <v>10214</v>
+        <v>61513</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B354" s="0" t="s">
-        <v>128</v>
+        <v>52</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D354" s="0" t="n">
-        <v>26626</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>122521</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B355" s="0" t="s">
-        <v>129</v>
+        <v>52</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D355" s="0" t="n">
-        <v>180</v>
+        <v>168851</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B356" s="0" t="s">
-        <v>129</v>
+        <v>52</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D356" s="0" t="n">
-        <v>61513</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22129,55 +22122,55 @@
         <v>52</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D357" s="0" t="n">
-        <v>122521</v>
+        <v>161</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B358" s="1" t="s">
-        <v>126</v>
+      <c r="B358" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D358" s="0" t="n">
-        <v>168851</v>
+        <v>10214</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B359" s="1" t="s">
-        <v>127</v>
+      <c r="B359" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D359" s="0" t="n">
-        <v>6029</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26626</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B360" s="1" t="s">
-        <v>127</v>
+      <c r="B360" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D360" s="0" t="n">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22185,55 +22178,55 @@
         <v>52</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D361" s="0" t="n">
-        <v>10214</v>
+        <v>61513</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B362" s="0" t="s">
-        <v>128</v>
+        <v>53</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D362" s="0" t="n">
-        <v>26626</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>122574</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B363" s="0" t="s">
-        <v>129</v>
+        <v>53</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D363" s="0" t="n">
-        <v>180</v>
+        <v>169062</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B364" s="0" t="s">
-        <v>129</v>
+        <v>53</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D364" s="0" t="n">
-        <v>61513</v>
+        <v>8391</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22241,55 +22234,55 @@
         <v>53</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D365" s="0" t="n">
-        <v>122574</v>
+        <v>161</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B366" s="1" t="s">
-        <v>126</v>
+      <c r="B366" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D366" s="0" t="n">
-        <v>169062</v>
+        <v>10286</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B367" s="1" t="s">
-        <v>127</v>
+      <c r="B367" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D367" s="0" t="n">
-        <v>8391</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26635</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B368" s="1" t="s">
-        <v>127</v>
+      <c r="B368" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D368" s="0" t="n">
-        <v>161</v>
+        <v>898</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22297,55 +22290,55 @@
         <v>53</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D369" s="0" t="n">
-        <v>10286</v>
+        <v>61515</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B370" s="0" t="s">
-        <v>128</v>
+        <v>54</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D370" s="0" t="n">
-        <v>26635</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>123716</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B371" s="0" t="s">
-        <v>129</v>
+        <v>54</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D371" s="0" t="n">
-        <v>898</v>
+        <v>172284</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B372" s="0" t="s">
-        <v>129</v>
+        <v>54</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D372" s="0" t="n">
-        <v>61515</v>
+        <v>8713</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22353,55 +22346,55 @@
         <v>54</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D373" s="0" t="n">
-        <v>123716</v>
+        <v>163</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B374" s="1" t="s">
-        <v>126</v>
+      <c r="B374" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D374" s="0" t="n">
-        <v>172284</v>
+        <v>10347</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B375" s="1" t="s">
-        <v>127</v>
+      <c r="B375" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D375" s="0" t="n">
-        <v>8713</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26634</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B376" s="1" t="s">
-        <v>127</v>
+      <c r="B376" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D376" s="0" t="n">
-        <v>163</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22409,55 +22402,55 @@
         <v>54</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D377" s="0" t="n">
-        <v>10347</v>
+        <v>61515</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B378" s="0" t="s">
-        <v>128</v>
+        <v>55</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D378" s="0" t="n">
-        <v>26634</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>127448</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B379" s="0" t="s">
-        <v>129</v>
+        <v>55</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D379" s="0" t="n">
-        <v>1006</v>
+        <v>174767</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B380" s="0" t="s">
-        <v>129</v>
+        <v>55</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D380" s="0" t="n">
-        <v>61515</v>
+        <v>9287</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22465,55 +22458,55 @@
         <v>55</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D381" s="0" t="n">
-        <v>127448</v>
+        <v>171</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B382" s="1" t="s">
-        <v>126</v>
+      <c r="B382" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D382" s="0" t="n">
-        <v>174767</v>
+        <v>10367</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B383" s="1" t="s">
-        <v>127</v>
+      <c r="B383" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D383" s="0" t="n">
-        <v>9287</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26634</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B384" s="1" t="s">
-        <v>127</v>
+      <c r="B384" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D384" s="0" t="n">
-        <v>171</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22521,55 +22514,55 @@
         <v>55</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D385" s="0" t="n">
-        <v>10367</v>
+        <v>61517</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B386" s="0" t="s">
-        <v>128</v>
+        <v>56</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D386" s="0" t="n">
-        <v>26634</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>128329</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B387" s="0" t="s">
-        <v>129</v>
+        <v>56</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D387" s="0" t="n">
-        <v>1366</v>
+        <v>180093</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B388" s="0" t="s">
-        <v>129</v>
+        <v>56</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D388" s="0" t="n">
-        <v>61517</v>
+        <v>9598</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22577,55 +22570,55 @@
         <v>56</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D389" s="0" t="n">
-        <v>128329</v>
+        <v>171</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B390" s="1" t="s">
-        <v>126</v>
+      <c r="B390" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D390" s="0" t="n">
-        <v>180093</v>
+        <v>11603</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B391" s="1" t="s">
-        <v>127</v>
+      <c r="B391" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D391" s="0" t="n">
-        <v>9598</v>
-      </c>
-    </row>
-    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26640</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B392" s="1" t="s">
-        <v>127</v>
+      <c r="B392" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D392" s="0" t="n">
-        <v>171</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22633,55 +22626,55 @@
         <v>56</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D393" s="0" t="n">
-        <v>11603</v>
+        <v>61518</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B394" s="0" t="s">
-        <v>128</v>
+        <v>57</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D394" s="0" t="n">
-        <v>26640</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>131834</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B395" s="0" t="s">
-        <v>129</v>
+        <v>57</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D395" s="0" t="n">
-        <v>1366</v>
+        <v>181357</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B396" s="0" t="s">
-        <v>129</v>
+        <v>57</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D396" s="0" t="n">
-        <v>61518</v>
+        <v>10249</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22689,55 +22682,55 @@
         <v>57</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D397" s="0" t="n">
-        <v>131834</v>
+        <v>156</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B398" s="1" t="s">
-        <v>126</v>
+      <c r="B398" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D398" s="0" t="n">
-        <v>181357</v>
+        <v>14189</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B399" s="1" t="s">
-        <v>127</v>
+      <c r="B399" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D399" s="0" t="n">
-        <v>10249</v>
-      </c>
-    </row>
-    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26762</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B400" s="1" t="s">
-        <v>127</v>
+      <c r="B400" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C400" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D400" s="0" t="n">
-        <v>156</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22745,55 +22738,55 @@
         <v>57</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C401" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D401" s="0" t="n">
-        <v>14189</v>
+        <v>61536</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B402" s="0" t="s">
-        <v>128</v>
+        <v>58</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C402" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D402" s="0" t="n">
-        <v>26762</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>134822</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B403" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C403" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D403" s="0" t="n">
-        <v>1366</v>
+        <v>183833</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B404" s="0" t="s">
-        <v>129</v>
+        <v>58</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C404" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D404" s="0" t="n">
-        <v>61536</v>
+        <v>10251</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22801,55 +22794,55 @@
         <v>58</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C405" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D405" s="0" t="n">
-        <v>134822</v>
+        <v>156</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B406" s="1" t="s">
-        <v>126</v>
+      <c r="B406" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C406" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D406" s="0" t="n">
-        <v>183833</v>
+        <v>15691</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B407" s="1" t="s">
-        <v>127</v>
+      <c r="B407" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C407" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D407" s="0" t="n">
-        <v>10251</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26776</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B408" s="1" t="s">
-        <v>127</v>
+      <c r="B408" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C408" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D408" s="0" t="n">
-        <v>156</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22857,55 +22850,55 @@
         <v>58</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C409" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D409" s="0" t="n">
-        <v>15691</v>
+        <v>61535</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B410" s="0" t="s">
-        <v>128</v>
+        <v>59</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C410" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D410" s="0" t="n">
-        <v>26776</v>
-      </c>
-    </row>
-    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>134822</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B411" s="0" t="s">
-        <v>129</v>
+        <v>59</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C411" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D411" s="0" t="n">
-        <v>1366</v>
+        <v>183833</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B412" s="0" t="s">
-        <v>129</v>
+        <v>59</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C412" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D412" s="0" t="n">
-        <v>61535</v>
+        <v>10538</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22913,55 +22906,55 @@
         <v>59</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C413" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D413" s="0" t="n">
-        <v>134822</v>
+        <v>156</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B414" s="1" t="s">
-        <v>126</v>
+      <c r="B414" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C414" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D414" s="0" t="n">
-        <v>183833</v>
+        <v>16108</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B415" s="1" t="s">
-        <v>127</v>
+      <c r="B415" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C415" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D415" s="0" t="n">
-        <v>10538</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26779</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B416" s="1" t="s">
-        <v>127</v>
+      <c r="B416" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C416" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D416" s="0" t="n">
-        <v>156</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22969,55 +22962,55 @@
         <v>59</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C417" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D417" s="0" t="n">
-        <v>16108</v>
+        <v>61535</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B418" s="0" t="s">
-        <v>128</v>
+        <v>60</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C418" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D418" s="0" t="n">
-        <v>26779</v>
-      </c>
-    </row>
-    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>134822</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B419" s="0" t="s">
-        <v>129</v>
+        <v>60</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C419" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D419" s="0" t="n">
-        <v>1366</v>
+        <v>183833</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B420" s="0" t="s">
-        <v>129</v>
+        <v>60</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C420" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D420" s="0" t="n">
-        <v>61535</v>
+        <v>10903</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23025,55 +23018,55 @@
         <v>60</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C421" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D421" s="0" t="n">
-        <v>134822</v>
+        <v>311</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B422" s="1" t="s">
-        <v>126</v>
+      <c r="B422" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C422" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D422" s="0" t="n">
-        <v>183833</v>
+        <v>16235</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B423" s="1" t="s">
-        <v>127</v>
+      <c r="B423" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C423" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D423" s="0" t="n">
-        <v>10903</v>
-      </c>
-    </row>
-    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26782</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B424" s="1" t="s">
-        <v>127</v>
+      <c r="B424" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C424" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D424" s="0" t="n">
-        <v>311</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23081,55 +23074,55 @@
         <v>60</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C425" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D425" s="0" t="n">
-        <v>16235</v>
+        <v>61535</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B426" s="0" t="s">
-        <v>128</v>
+        <v>61</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C426" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D426" s="0" t="n">
-        <v>26782</v>
-      </c>
-    </row>
-    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>135500</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B427" s="0" t="s">
-        <v>129</v>
+        <v>61</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C427" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D427" s="0" t="n">
-        <v>1366</v>
+        <v>187657</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B428" s="0" t="s">
-        <v>129</v>
+        <v>61</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C428" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D428" s="0" t="n">
-        <v>61535</v>
+        <v>11306</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23137,55 +23130,55 @@
         <v>61</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C429" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D429" s="0" t="n">
-        <v>135500</v>
+        <v>311</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B430" s="1" t="s">
-        <v>126</v>
+      <c r="B430" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C430" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D430" s="0" t="n">
-        <v>187657</v>
+        <v>16867</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B431" s="1" t="s">
-        <v>127</v>
+      <c r="B431" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C431" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D431" s="0" t="n">
-        <v>11306</v>
-      </c>
-    </row>
-    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26782</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B432" s="1" t="s">
-        <v>127</v>
+      <c r="B432" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C432" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D432" s="0" t="n">
-        <v>311</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23193,55 +23186,55 @@
         <v>61</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C433" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D433" s="0" t="n">
-        <v>16867</v>
+        <v>61535</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B434" s="0" t="s">
-        <v>128</v>
+        <v>62</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C434" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D434" s="0" t="n">
-        <v>26782</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>137955</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B435" s="0" t="s">
-        <v>129</v>
+        <v>62</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C435" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D435" s="0" t="n">
-        <v>1836</v>
+        <v>192636</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B436" s="0" t="s">
-        <v>129</v>
+        <v>62</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C436" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D436" s="0" t="n">
-        <v>61535</v>
+        <v>11525</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23249,55 +23242,55 @@
         <v>62</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C437" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D437" s="0" t="n">
-        <v>137955</v>
+        <v>311</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B438" s="1" t="s">
-        <v>126</v>
+      <c r="B438" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C438" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D438" s="0" t="n">
-        <v>192636</v>
+        <v>17456</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B439" s="1" t="s">
-        <v>127</v>
+      <c r="B439" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C439" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D439" s="0" t="n">
-        <v>11525</v>
-      </c>
-    </row>
-    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26760</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B440" s="1" t="s">
-        <v>127</v>
+      <c r="B440" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C440" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D440" s="0" t="n">
-        <v>311</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23305,55 +23298,55 @@
         <v>62</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C441" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D441" s="0" t="n">
-        <v>17456</v>
+        <v>61523</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B442" s="0" t="s">
-        <v>128</v>
+        <v>63</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C442" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D442" s="0" t="n">
-        <v>26760</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>140674</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B443" s="0" t="s">
-        <v>129</v>
+        <v>63</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C443" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D443" s="0" t="n">
-        <v>2067</v>
+        <v>197182</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B444" s="0" t="s">
-        <v>129</v>
+        <v>63</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C444" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D444" s="0" t="n">
-        <v>61523</v>
+        <v>12206</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23361,55 +23354,55 @@
         <v>63</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C445" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D445" s="0" t="n">
-        <v>140674</v>
+        <v>311</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B446" s="1" t="s">
-        <v>126</v>
+      <c r="B446" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C446" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D446" s="0" t="n">
-        <v>197182</v>
+        <v>17915</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B447" s="1" t="s">
-        <v>127</v>
+      <c r="B447" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C447" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D447" s="0" t="n">
-        <v>12206</v>
-      </c>
-    </row>
-    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26737</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B448" s="1" t="s">
-        <v>127</v>
+      <c r="B448" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C448" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D448" s="0" t="n">
-        <v>311</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23417,55 +23410,55 @@
         <v>63</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C449" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D449" s="0" t="n">
-        <v>17915</v>
+        <v>61545</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B450" s="0" t="s">
-        <v>128</v>
+        <v>64</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C450" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D450" s="0" t="n">
-        <v>26737</v>
-      </c>
-    </row>
-    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>140674</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B451" s="0" t="s">
-        <v>129</v>
+        <v>64</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C451" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D451" s="0" t="n">
-        <v>2115</v>
+        <v>197182</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B452" s="0" t="s">
-        <v>129</v>
+        <v>64</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C452" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D452" s="0" t="n">
-        <v>61545</v>
+        <v>12206</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23473,55 +23466,55 @@
         <v>64</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C453" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D453" s="0" t="n">
-        <v>140674</v>
+        <v>311</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B454" s="1" t="s">
-        <v>126</v>
+      <c r="B454" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C454" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D454" s="0" t="n">
-        <v>197182</v>
+        <v>17915</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B455" s="1" t="s">
-        <v>127</v>
+      <c r="B455" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C455" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D455" s="0" t="n">
-        <v>12206</v>
-      </c>
-    </row>
-    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26737</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B456" s="1" t="s">
-        <v>127</v>
+      <c r="B456" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C456" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D456" s="0" t="n">
-        <v>311</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23529,55 +23522,55 @@
         <v>64</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C457" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D457" s="0" t="n">
-        <v>17915</v>
+        <v>61545</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B458" s="0" t="s">
-        <v>128</v>
+        <v>65</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C458" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D458" s="0" t="n">
-        <v>26737</v>
-      </c>
-    </row>
-    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>144898</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B459" s="0" t="s">
-        <v>129</v>
+        <v>65</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C459" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D459" s="0" t="n">
-        <v>2115</v>
+        <v>203064</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B460" s="0" t="s">
-        <v>129</v>
+        <v>65</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C460" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D460" s="0" t="n">
-        <v>61545</v>
+        <v>12491</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23585,55 +23578,55 @@
         <v>65</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C461" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D461" s="0" t="n">
-        <v>144898</v>
+        <v>311</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B462" s="1" t="s">
-        <v>126</v>
+      <c r="B462" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C462" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D462" s="0" t="n">
-        <v>203064</v>
+        <v>18726</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B463" s="1" t="s">
-        <v>127</v>
+      <c r="B463" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C463" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D463" s="0" t="n">
-        <v>12491</v>
-      </c>
-    </row>
-    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26748</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B464" s="1" t="s">
-        <v>127</v>
+      <c r="B464" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C464" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D464" s="0" t="n">
-        <v>311</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23641,55 +23634,55 @@
         <v>65</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C465" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D465" s="0" t="n">
-        <v>18726</v>
+        <v>61551</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B466" s="0" t="s">
-        <v>128</v>
+        <v>66</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C466" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D466" s="0" t="n">
-        <v>26748</v>
-      </c>
-    </row>
-    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>146329</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B467" s="0" t="s">
-        <v>129</v>
+        <v>66</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C467" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D467" s="0" t="n">
-        <v>2227</v>
+        <v>205155</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B468" s="0" t="s">
-        <v>129</v>
+        <v>66</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C468" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D468" s="0" t="n">
-        <v>61551</v>
+        <v>13104</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23697,55 +23690,55 @@
         <v>66</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C469" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D469" s="0" t="n">
-        <v>146329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B470" s="1" t="s">
-        <v>126</v>
+      <c r="B470" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C470" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D470" s="0" t="n">
-        <v>205155</v>
+        <v>19193</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B471" s="1" t="s">
-        <v>127</v>
+      <c r="B471" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C471" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D471" s="0" t="n">
-        <v>13104</v>
-      </c>
-    </row>
-    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26749</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B472" s="1" t="s">
-        <v>127</v>
+      <c r="B472" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C472" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D472" s="0" t="n">
-        <v>311</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23753,55 +23746,55 @@
         <v>66</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C473" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D473" s="0" t="n">
-        <v>19193</v>
+        <v>61553</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B474" s="0" t="s">
-        <v>128</v>
+        <v>67</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C474" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D474" s="0" t="n">
-        <v>26749</v>
-      </c>
-    </row>
-    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>146329</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B475" s="0" t="s">
-        <v>129</v>
+        <v>67</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C475" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D475" s="0" t="n">
-        <v>3103</v>
+        <v>205155</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B476" s="0" t="s">
-        <v>129</v>
+        <v>67</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C476" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D476" s="0" t="n">
-        <v>61553</v>
+        <v>13104</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23809,55 +23802,55 @@
         <v>67</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C477" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D477" s="0" t="n">
-        <v>146329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B478" s="1" t="s">
-        <v>126</v>
+      <c r="B478" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C478" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D478" s="0" t="n">
-        <v>205155</v>
+        <v>19337</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B479" s="1" t="s">
-        <v>127</v>
+      <c r="B479" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C479" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D479" s="0" t="n">
-        <v>13104</v>
-      </c>
-    </row>
-    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26755</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B480" s="1" t="s">
-        <v>127</v>
+      <c r="B480" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C480" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D480" s="0" t="n">
-        <v>311</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23865,55 +23858,55 @@
         <v>67</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C481" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D481" s="0" t="n">
-        <v>19337</v>
+        <v>61741</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B482" s="0" t="s">
-        <v>128</v>
+        <v>68</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C482" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D482" s="0" t="n">
-        <v>26755</v>
-      </c>
-    </row>
-    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>148022</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B483" s="0" t="s">
-        <v>129</v>
+        <v>68</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C483" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D483" s="0" t="n">
-        <v>3485</v>
+        <v>208544</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B484" s="0" t="s">
-        <v>129</v>
+        <v>68</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C484" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D484" s="0" t="n">
-        <v>61741</v>
+        <v>13119</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23921,55 +23914,55 @@
         <v>68</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C485" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D485" s="0" t="n">
-        <v>148022</v>
+        <v>311</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B486" s="1" t="s">
-        <v>126</v>
+      <c r="B486" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C486" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D486" s="0" t="n">
-        <v>208544</v>
+        <v>19688</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B487" s="1" t="s">
-        <v>127</v>
+      <c r="B487" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C487" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D487" s="0" t="n">
-        <v>13119</v>
-      </c>
-    </row>
-    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26748</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B488" s="1" t="s">
-        <v>127</v>
+      <c r="B488" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C488" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D488" s="0" t="n">
-        <v>311</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23977,55 +23970,55 @@
         <v>68</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C489" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D489" s="0" t="n">
-        <v>19688</v>
+        <v>61739</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B490" s="0" t="s">
-        <v>128</v>
+        <v>69</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C490" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D490" s="0" t="n">
-        <v>26748</v>
-      </c>
-    </row>
-    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>150295</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B491" s="0" t="s">
-        <v>129</v>
+        <v>69</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C491" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D491" s="0" t="n">
-        <v>4041</v>
+        <v>212045</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B492" s="0" t="s">
-        <v>129</v>
+        <v>69</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C492" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D492" s="0" t="n">
-        <v>61739</v>
+        <v>13382</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24033,55 +24026,55 @@
         <v>69</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C493" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D493" s="0" t="n">
-        <v>150295</v>
+        <v>313</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B494" s="1" t="s">
-        <v>126</v>
+      <c r="B494" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C494" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D494" s="0" t="n">
-        <v>212045</v>
+        <v>20323</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B495" s="1" t="s">
-        <v>127</v>
+      <c r="B495" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C495" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D495" s="0" t="n">
-        <v>13382</v>
-      </c>
-    </row>
-    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26754</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B496" s="1" t="s">
-        <v>127</v>
+      <c r="B496" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C496" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D496" s="0" t="n">
-        <v>313</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24089,55 +24082,55 @@
         <v>69</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C497" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D497" s="0" t="n">
-        <v>20323</v>
+        <v>61748</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B498" s="0" t="s">
-        <v>128</v>
+        <v>70</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C498" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D498" s="0" t="n">
-        <v>26754</v>
-      </c>
-    </row>
-    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>153275</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B499" s="0" t="s">
-        <v>129</v>
+        <v>70</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C499" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D499" s="0" t="n">
-        <v>4955</v>
+        <v>215712</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B500" s="0" t="s">
-        <v>129</v>
+        <v>70</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C500" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D500" s="0" t="n">
-        <v>61748</v>
+        <v>13608</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24145,55 +24138,55 @@
         <v>70</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C501" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D501" s="0" t="n">
-        <v>153275</v>
+        <v>317</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B502" s="1" t="s">
-        <v>126</v>
+      <c r="B502" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C502" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D502" s="0" t="n">
-        <v>215712</v>
+        <v>21543</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B503" s="1" t="s">
-        <v>127</v>
+      <c r="B503" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C503" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D503" s="0" t="n">
-        <v>13608</v>
-      </c>
-    </row>
-    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26753</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B504" s="1" t="s">
-        <v>127</v>
+      <c r="B504" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C504" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D504" s="0" t="n">
-        <v>317</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24201,55 +24194,55 @@
         <v>70</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C505" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D505" s="0" t="n">
-        <v>21543</v>
+        <v>61752</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B506" s="0" t="s">
-        <v>128</v>
+        <v>71</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C506" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D506" s="0" t="n">
-        <v>26753</v>
-      </c>
-    </row>
-    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>157766</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B507" s="0" t="s">
-        <v>129</v>
+        <v>71</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C507" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D507" s="0" t="n">
-        <v>5196</v>
+        <v>217087</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B508" s="0" t="s">
-        <v>129</v>
+        <v>71</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C508" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D508" s="0" t="n">
-        <v>61752</v>
+        <v>14148</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24257,55 +24250,55 @@
         <v>71</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C509" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D509" s="0" t="n">
-        <v>157766</v>
+        <v>593</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B510" s="1" t="s">
-        <v>126</v>
+      <c r="B510" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C510" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D510" s="0" t="n">
-        <v>217087</v>
+        <v>22839</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B511" s="1" t="s">
-        <v>127</v>
+      <c r="B511" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C511" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D511" s="0" t="n">
-        <v>14148</v>
-      </c>
-    </row>
-    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26757</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B512" s="1" t="s">
-        <v>127</v>
+      <c r="B512" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C512" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D512" s="0" t="n">
-        <v>593</v>
+        <v>5983</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24313,55 +24306,55 @@
         <v>71</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C513" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D513" s="0" t="n">
-        <v>22839</v>
+        <v>61763</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B514" s="0" t="s">
-        <v>128</v>
+        <v>72</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C514" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D514" s="0" t="n">
-        <v>26757</v>
-      </c>
-    </row>
-    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>162527</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B515" s="0" t="s">
-        <v>129</v>
+        <v>72</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C515" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D515" s="0" t="n">
-        <v>5983</v>
+        <v>218180</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B516" s="0" t="s">
-        <v>129</v>
+        <v>72</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C516" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D516" s="0" t="n">
-        <v>61763</v>
+        <v>14177</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24369,55 +24362,55 @@
         <v>72</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C517" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D517" s="0" t="n">
-        <v>162527</v>
+        <v>593</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B518" s="1" t="s">
-        <v>126</v>
+      <c r="B518" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C518" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D518" s="0" t="n">
-        <v>218180</v>
+        <v>23936</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B519" s="1" t="s">
-        <v>127</v>
+      <c r="B519" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C519" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D519" s="0" t="n">
-        <v>14177</v>
-      </c>
-    </row>
-    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26758</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B520" s="1" t="s">
-        <v>127</v>
+      <c r="B520" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C520" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D520" s="0" t="n">
-        <v>593</v>
+        <v>6721</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24425,55 +24418,55 @@
         <v>72</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C521" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D521" s="0" t="n">
-        <v>23936</v>
+        <v>61762</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B522" s="0" t="s">
-        <v>128</v>
+        <v>73</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C522" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D522" s="0" t="n">
-        <v>26758</v>
-      </c>
-    </row>
-    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>162809</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B523" s="0" t="s">
-        <v>129</v>
+        <v>73</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C523" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D523" s="0" t="n">
-        <v>6721</v>
+        <v>219156</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B524" s="0" t="s">
-        <v>129</v>
+        <v>73</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C524" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D524" s="0" t="n">
-        <v>61762</v>
+        <v>14177</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24481,55 +24474,55 @@
         <v>73</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C525" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D525" s="0" t="n">
-        <v>162809</v>
+        <v>593</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B526" s="1" t="s">
-        <v>126</v>
+      <c r="B526" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C526" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D526" s="0" t="n">
-        <v>219156</v>
+        <v>24657</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B527" s="1" t="s">
-        <v>127</v>
+      <c r="B527" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C527" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D527" s="0" t="n">
-        <v>14177</v>
-      </c>
-    </row>
-    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26765</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B528" s="1" t="s">
-        <v>127</v>
+      <c r="B528" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C528" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D528" s="0" t="n">
-        <v>593</v>
+        <v>8642</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24537,55 +24530,55 @@
         <v>73</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C529" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D529" s="0" t="n">
-        <v>24657</v>
+        <v>61898</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B530" s="0" t="s">
-        <v>128</v>
+        <v>74</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C530" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D530" s="0" t="n">
-        <v>26765</v>
-      </c>
-    </row>
-    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>162986</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B531" s="0" t="s">
-        <v>129</v>
+        <v>74</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C531" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D531" s="0" t="n">
-        <v>8642</v>
+        <v>219158</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B532" s="0" t="s">
-        <v>129</v>
+        <v>74</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C532" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D532" s="0" t="n">
-        <v>61898</v>
+        <v>14177</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24593,55 +24586,55 @@
         <v>74</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C533" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D533" s="0" t="n">
-        <v>162986</v>
+        <v>593</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B534" s="1" t="s">
-        <v>126</v>
+      <c r="B534" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C534" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D534" s="0" t="n">
-        <v>219158</v>
+        <v>25389</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B535" s="1" t="s">
-        <v>127</v>
+      <c r="B535" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C535" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D535" s="0" t="n">
-        <v>14177</v>
-      </c>
-    </row>
-    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26793</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B536" s="1" t="s">
-        <v>127</v>
+      <c r="B536" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C536" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D536" s="0" t="n">
-        <v>593</v>
+        <v>10752</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24649,55 +24642,55 @@
         <v>74</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C537" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D537" s="0" t="n">
-        <v>25389</v>
+        <v>61938</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B538" s="0" t="s">
-        <v>128</v>
+        <v>75</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C538" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D538" s="0" t="n">
-        <v>26793</v>
-      </c>
-    </row>
-    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>166166</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B539" s="0" t="s">
-        <v>129</v>
+        <v>75</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C539" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D539" s="0" t="n">
-        <v>10752</v>
+        <v>220926</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B540" s="0" t="s">
-        <v>129</v>
+        <v>75</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C540" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D540" s="0" t="n">
-        <v>61938</v>
+        <v>14191</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24705,55 +24698,55 @@
         <v>75</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C541" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D541" s="0" t="n">
-        <v>166166</v>
+        <v>593</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B542" s="1" t="s">
-        <v>126</v>
+      <c r="B542" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C542" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D542" s="0" t="n">
-        <v>220926</v>
+        <v>25394</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B543" s="1" t="s">
-        <v>127</v>
+      <c r="B543" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C543" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D543" s="0" t="n">
-        <v>14191</v>
-      </c>
-    </row>
-    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26793</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B544" s="1" t="s">
-        <v>127</v>
+      <c r="B544" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C544" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D544" s="0" t="n">
-        <v>593</v>
+        <v>11963</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24761,55 +24754,55 @@
         <v>75</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C545" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D545" s="0" t="n">
-        <v>25394</v>
+        <v>61952</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B546" s="0" t="s">
-        <v>128</v>
+        <v>76</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C546" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D546" s="0" t="n">
-        <v>26793</v>
-      </c>
-    </row>
-    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>168280</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B547" s="0" t="s">
-        <v>129</v>
+        <v>76</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C547" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D547" s="0" t="n">
-        <v>11963</v>
+        <v>224323</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B548" s="0" t="s">
-        <v>129</v>
+        <v>76</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C548" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D548" s="0" t="n">
-        <v>61952</v>
+        <v>14183</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24817,55 +24810,55 @@
         <v>76</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C549" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D549" s="0" t="n">
-        <v>168280</v>
+        <v>593</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B550" s="1" t="s">
-        <v>126</v>
+      <c r="B550" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C550" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D550" s="0" t="n">
-        <v>224323</v>
+        <v>25410</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B551" s="1" t="s">
-        <v>127</v>
+      <c r="B551" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="C551" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D551" s="0" t="n">
-        <v>14183</v>
-      </c>
-    </row>
-    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26777</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B552" s="1" t="s">
-        <v>127</v>
+      <c r="B552" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C552" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D552" s="0" t="n">
-        <v>593</v>
+        <v>14319</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24873,54 +24866,12 @@
         <v>76</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C553" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D553" s="0" t="n">
-        <v>25410</v>
-      </c>
-    </row>
-    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B554" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C554" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D554" s="0" t="n">
-        <v>26777</v>
-      </c>
-    </row>
-    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A555" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B555" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C555" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D555" s="0" t="n">
-        <v>14319</v>
-      </c>
-    </row>
-    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B556" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C556" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D556" s="0" t="n">
         <v>61963</v>
       </c>
     </row>
